--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3549.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3549.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.656707135040881</v>
+        <v>0.296595960855484</v>
       </c>
       <c r="B1">
-        <v>1.70792486136831</v>
+        <v>0.2848637700080872</v>
       </c>
       <c r="C1">
-        <v>1.791283370743722</v>
+        <v>0.2907212972640991</v>
       </c>
       <c r="D1">
-        <v>2.448330861581117</v>
+        <v>0.3799961805343628</v>
       </c>
       <c r="E1">
-        <v>4.12447504114505</v>
+        <v>0.5744473934173584</v>
       </c>
     </row>
   </sheetData>
